--- a/retailer/data/sales.xlsx
+++ b/retailer/data/sales.xlsx
@@ -1,47 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f5092fb7e2292c0/Desktop/retailer/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_E1FD812D013094545C3C346AD8F3F33A35D3E4DD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{451002FD-DAF3-4CF3-BE8B-ED44AA8C26AB}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>product_id</t>
-  </si>
-  <si>
-    <t>quantity</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="21">
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>category</t>
   </si>
   <si>
     <t>amount</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>retailer</t>
-  </si>
-  <si>
-    <t>customer_id</t>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>2024-07</t>
+  </si>
+  <si>
+    <t>2024-08</t>
+  </si>
+  <si>
+    <t>2024-09</t>
+  </si>
+  <si>
+    <t>2024-10</t>
+  </si>
+  <si>
+    <t>2024-11</t>
+  </si>
+  <si>
+    <t>2024-12</t>
+  </si>
+  <si>
+    <t>2025-01</t>
+  </si>
+  <si>
+    <t>2025-02</t>
+  </si>
+  <si>
+    <t>2025-03</t>
+  </si>
+  <si>
+    <t>2025-04</t>
+  </si>
+  <si>
+    <t>2025-05</t>
+  </si>
+  <si>
+    <t>2025-06</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Home &amp; Kitchen</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,13 +152,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -148,7 +204,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -182,6 +238,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -216,9 +273,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -391,14 +449,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="21.73046875" customWidth="1"/>
+    <col min="2" max="2" width="14.9296875" customWidth="1"/>
+    <col min="3" max="3" width="14.265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,14 +476,845 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>4505.91</v>
+      </c>
+      <c r="D2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>6336.34</v>
+      </c>
+      <c r="D3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>3163.6</v>
+      </c>
+      <c r="D4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>8764.4500000000007</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>4547.58</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>7536.02</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>2651.62</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>4157.6400000000003</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>6152.85</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>9689.01</v>
+      </c>
+      <c r="D11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>5788.66</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>5140.95</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>9918.8799999999992</v>
+      </c>
+      <c r="D14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>2435.2399999999998</v>
+      </c>
+      <c r="D15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>9614.9500000000007</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>4700.66</v>
+      </c>
+      <c r="D17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>7996.19</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>4281.46</v>
+      </c>
+      <c r="D19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>7047.29</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>8065.29</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>2752.85</v>
+      </c>
+      <c r="D22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <v>2542.0300000000002</v>
+      </c>
+      <c r="D23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>2286.2199999999998</v>
+      </c>
+      <c r="D24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>8752.9699999999993</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>7177.3</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>7254.19</v>
+      </c>
+      <c r="D27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>4709.6499999999996</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>7871</v>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>4179.25</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>9744.2900000000009</v>
+      </c>
+      <c r="D31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>7360</v>
+      </c>
+      <c r="D32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33">
+        <v>7518.17</v>
+      </c>
+      <c r="D33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34">
+        <v>7197.75</v>
+      </c>
+      <c r="D34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35">
+        <v>6570.32</v>
+      </c>
+      <c r="D35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>3953.86</v>
+      </c>
+      <c r="D36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>6918.1</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38">
+        <v>6666.15</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>9029.02</v>
+      </c>
+      <c r="D39">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40">
+        <v>4997.74</v>
+      </c>
+      <c r="D40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>4151.58</v>
+      </c>
+      <c r="D41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <v>3834.97</v>
+      </c>
+      <c r="D42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43">
+        <v>2442.12</v>
+      </c>
+      <c r="D43">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>5068.96</v>
+      </c>
+      <c r="D44">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45">
+        <v>3604.28</v>
+      </c>
+      <c r="D45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>5724.78</v>
+      </c>
+      <c r="D46">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>4401.43</v>
+      </c>
+      <c r="D47">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48">
+        <v>6850.16</v>
+      </c>
+      <c r="D48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49">
+        <v>4349.76</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <v>3723.64</v>
+      </c>
+      <c r="D50">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51">
+        <v>8450.7999999999993</v>
+      </c>
+      <c r="D51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52">
+        <v>2631.14</v>
+      </c>
+      <c r="D52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53">
+        <v>7449.55</v>
+      </c>
+      <c r="D53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54">
+        <v>7959.53</v>
+      </c>
+      <c r="D54">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55">
+        <v>6753.68</v>
+      </c>
+      <c r="D55">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56">
+        <v>9870.98</v>
+      </c>
+      <c r="D56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>2044.53</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58">
+        <v>4684.96</v>
+      </c>
+      <c r="D58">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59">
+        <v>9035.9</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60">
+        <v>9977.2900000000009</v>
+      </c>
+      <c r="D60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <v>3286.48</v>
+      </c>
+      <c r="D61">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
